--- a/vocab/tocfl_2.xlsx
+++ b/vocab/tocfl_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\Files\python_work\scripts_for_fun\chinese_flashcards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\Files\javascript\chinese_flashcards\vocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE71DB2-771B-44E6-94EE-E6F041C6A8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6E53D-4A48-4BC7-AB97-8A083914A897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="1840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tocfl_2" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>阿姨</t>
   </si>
   <si>
-    <t xml:space="preserve">āyí one's mother's sister, auntie; address to woman of similar age as parents     </t>
-  </si>
-  <si>
     <t>安全</t>
   </si>
   <si>
@@ -3031,6 +3028,9 @@
   </si>
   <si>
     <t>honglvdeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āyí aunt; woman of similar age as one's parents     </t>
   </si>
 </sst>
 </file>
@@ -3891,18 +3891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="68.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3915,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3929,39 +3922,39 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="str">
         <f>LEFT(B2,FIND(" ",B2)-1)</f>
         <v>āyí</v>
       </c>
       <c r="D2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F2" t="str">
         <f>RIGHT(B2,LEN(B2)-FIND(" ",B2))</f>
-        <v xml:space="preserve">one's mother's sister, auntie; address to woman of similar age as parents     </v>
+        <v xml:space="preserve">aunt; woman of similar age as one's parents     </v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">LEFT(B3,FIND(" ",B3)-1)</f>
         <v>ānquán</v>
       </c>
       <c r="D3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="1">RIGHT(B3,LEN(B3)-FIND(" ",B3))</f>
@@ -3970,20 +3963,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>bànfǎ</v>
       </c>
       <c r="D4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -3992,20 +3985,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>bāngmáng</v>
       </c>
       <c r="D5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -4014,20 +4007,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>bìxū</v>
       </c>
       <c r="D6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -4036,20 +4029,20 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B7" t="s">
         <v>926</v>
-      </c>
-      <c r="B7" t="s">
-        <v>927</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>biān</v>
       </c>
       <c r="D7" t="s">
+        <v>927</v>
+      </c>
+      <c r="E7" t="s">
         <v>928</v>
-      </c>
-      <c r="E7" t="s">
-        <v>929</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -4058,20 +4051,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>biérén</v>
       </c>
       <c r="D8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -4080,20 +4073,20 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>bǐnggān</v>
       </c>
       <c r="D9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -4102,20 +4095,20 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>bīngxiāng</v>
       </c>
       <c r="D10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -4124,20 +4117,20 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>bìngrén</v>
       </c>
       <c r="D11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -4146,20 +4139,20 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>búcuò</v>
       </c>
       <c r="D12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -4168,20 +4161,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>búdàn</v>
       </c>
       <c r="D13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -4190,20 +4183,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>búyòng</v>
       </c>
       <c r="D14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -4212,20 +4205,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>càidān</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -4234,20 +4227,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>cānzhuō</v>
       </c>
       <c r="D16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -4256,20 +4249,20 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>cǎodì</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -4278,20 +4271,20 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>chāzi</v>
       </c>
       <c r="D18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
@@ -4300,20 +4293,20 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>chéngshì</v>
       </c>
       <c r="D19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -4322,20 +4315,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>chènshān</v>
       </c>
       <c r="D20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -4344,20 +4337,20 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>chídào</v>
       </c>
       <c r="D21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -4366,20 +4359,20 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>chuānghù</v>
       </c>
       <c r="D22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -4388,20 +4381,20 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>cōngmíng</v>
       </c>
       <c r="D23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -4410,20 +4403,20 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>cóngqián</v>
       </c>
       <c r="D24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -4432,20 +4425,20 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>dàizi</v>
       </c>
       <c r="D25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -4454,20 +4447,20 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>dànshì</v>
       </c>
       <c r="D26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -4476,20 +4469,20 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>dāozi</v>
       </c>
       <c r="D27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -4498,20 +4491,20 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>dǎsǎo</v>
       </c>
       <c r="D28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -4520,20 +4513,20 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>dǎsuàn</v>
       </c>
       <c r="D29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -4542,20 +4535,20 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>dàshēng</v>
       </c>
       <c r="D30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -4564,20 +4557,20 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>dàyī</v>
       </c>
       <c r="D31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -4586,20 +4579,20 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>déguó</v>
       </c>
       <c r="D32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -4608,20 +4601,20 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>diàndēng</v>
       </c>
       <c r="D33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -4630,20 +4623,20 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>929</v>
+      </c>
+      <c r="B34" t="s">
         <v>930</v>
-      </c>
-      <c r="B34" t="s">
-        <v>931</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>diǎn</v>
       </c>
       <c r="D34" t="s">
+        <v>931</v>
+      </c>
+      <c r="E34" t="s">
         <v>932</v>
-      </c>
-      <c r="E34" t="s">
-        <v>933</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -4652,20 +4645,20 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>diǎncài</v>
       </c>
       <c r="D35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -4674,20 +4667,20 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>diǎnxīn</v>
       </c>
       <c r="D36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -4696,20 +4689,20 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>dòngwù</v>
       </c>
       <c r="D37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -4718,20 +4711,20 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>dúshū</v>
       </c>
       <c r="D38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -4740,20 +4733,20 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>ěrduō</v>
       </c>
       <c r="D39" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -4762,20 +4755,20 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>fǎguó</v>
       </c>
       <c r="D40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
@@ -4784,20 +4777,20 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>fàndiàn</v>
       </c>
       <c r="D41" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
@@ -4806,20 +4799,20 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>fāngfǎ</v>
       </c>
       <c r="D42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
@@ -4828,20 +4821,20 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>fàngjià</v>
       </c>
       <c r="D43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
@@ -4850,20 +4843,20 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>fàngxià</v>
       </c>
       <c r="D44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -4872,20 +4865,20 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>fāshēng</v>
       </c>
       <c r="D45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
@@ -4894,20 +4887,20 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>fāxiàn</v>
       </c>
       <c r="D46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
@@ -4916,20 +4909,20 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>fùqīn</v>
       </c>
       <c r="D47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -4938,20 +4931,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>gānggāng</v>
       </c>
       <c r="D48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
@@ -4960,20 +4953,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>gōngxǐ</v>
       </c>
       <c r="D49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
@@ -4985,17 +4978,17 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>gōngzuò</v>
       </c>
       <c r="D50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
@@ -5004,20 +4997,20 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>guānshàng</v>
       </c>
       <c r="D51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
@@ -5026,20 +5019,20 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>guǒzhī</v>
       </c>
       <c r="D52" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
@@ -5048,20 +5041,20 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>guòlái</v>
       </c>
       <c r="D53" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
@@ -5070,20 +5063,20 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>guònián</v>
       </c>
       <c r="D54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E54" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
@@ -5092,20 +5085,20 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v>guòqù</v>
       </c>
       <c r="D55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E55" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
@@ -5114,20 +5107,20 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v>guòqù</v>
       </c>
       <c r="D56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
@@ -5136,20 +5129,20 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>gùshì</v>
       </c>
       <c r="D57" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
@@ -5158,20 +5151,20 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>hàipà</v>
       </c>
       <c r="D58" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
@@ -5180,20 +5173,20 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>hànbǎo</v>
       </c>
       <c r="D59" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
@@ -5202,20 +5195,20 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>hánguó</v>
       </c>
       <c r="D60" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
@@ -5224,20 +5217,20 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v>hànyǔ</v>
       </c>
       <c r="D61" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
@@ -5246,20 +5239,20 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>hànzì</v>
       </c>
       <c r="D62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
@@ -5268,20 +5261,20 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
-      </c>
-      <c r="B63" t="s">
-        <v>123</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>hǎokàn</v>
       </c>
       <c r="D63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E63" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
@@ -5290,20 +5283,20 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>125</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v>hézi</v>
       </c>
       <c r="D64" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
@@ -5312,20 +5305,20 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>hēisè</v>
       </c>
       <c r="D65" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
@@ -5334,20 +5327,20 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" t="s">
-        <v>129</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v>hóngbāo</v>
       </c>
       <c r="D66" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
@@ -5356,20 +5349,20 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="2">LEFT(B67,FIND(" ",B67)-1)</f>
         <v>hóngchá</v>
       </c>
       <c r="D67" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="3">RIGHT(B67,LEN(B67)-FIND(" ",B67))</f>
@@ -5378,20 +5371,20 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
         <v>hòulái</v>
       </c>
       <c r="D68" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
@@ -5400,20 +5393,20 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
         <v>hùshì</v>
       </c>
       <c r="D69" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E69" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
@@ -5422,20 +5415,20 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
         <v>huàjiā</v>
       </c>
       <c r="D70" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E70" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
@@ -5444,20 +5437,20 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
         <v>huāyuán</v>
       </c>
       <c r="D71" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
@@ -5466,20 +5459,20 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
         <v>huáxuě</v>
       </c>
       <c r="D72" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
@@ -5488,20 +5481,20 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
         <v>huídá</v>
       </c>
       <c r="D73" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
@@ -5510,20 +5503,20 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
         <v>huòshì</v>
       </c>
       <c r="D74" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
@@ -5532,20 +5525,20 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
         <v>jīhuì</v>
       </c>
       <c r="D75" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E75" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
@@ -5554,20 +5547,20 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" t="s">
-        <v>149</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
         <v>jìhuà</v>
       </c>
       <c r="D76" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
@@ -5576,20 +5569,20 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
         <v>jiātíng</v>
       </c>
       <c r="D77" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
@@ -5598,20 +5591,20 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
         <v>jiǎndān</v>
       </c>
       <c r="D78" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
@@ -5620,20 +5613,20 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
         <v>jiǎnghuà</v>
       </c>
       <c r="D79" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E79" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
@@ -5642,20 +5635,20 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="2"/>
         <v>jiǎozi</v>
       </c>
       <c r="D80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
@@ -5664,20 +5657,20 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="2"/>
         <v>jiéhūn</v>
       </c>
       <c r="D81" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E81" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
@@ -5686,20 +5679,20 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="2"/>
         <v>jiémù</v>
       </c>
       <c r="D82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
@@ -5708,20 +5701,20 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="2"/>
         <v>jiějué</v>
       </c>
       <c r="D83" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
@@ -5730,20 +5723,20 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
         <v>jīngguò</v>
       </c>
       <c r="D84" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E84" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
@@ -5752,20 +5745,20 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
         <v>jǐngchá</v>
       </c>
       <c r="D85" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E85" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
@@ -5774,20 +5767,20 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
         <v>jǐnzhāng</v>
       </c>
       <c r="D86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E86" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
@@ -5796,20 +5789,20 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
         <v>jiùyào</v>
       </c>
       <c r="D87" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E87" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
@@ -5818,20 +5811,20 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
         <v>juédìng</v>
       </c>
       <c r="D88" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E88" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
@@ -5840,20 +5833,20 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
         <v>jùzi</v>
       </c>
       <c r="D89" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E89" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
@@ -5865,17 +5858,17 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
         <v>kāishǐ</v>
       </c>
       <c r="D90" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E90" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
@@ -5884,20 +5877,20 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" t="s">
-        <v>178</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
         <v>kāishuǐ</v>
       </c>
       <c r="D91" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E91" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
@@ -5906,20 +5899,20 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
         <v>179</v>
-      </c>
-      <c r="B92" t="s">
-        <v>180</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
         <v>kāixīn</v>
       </c>
       <c r="D92" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
@@ -5928,20 +5921,20 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
         <v>181</v>
-      </c>
-      <c r="B93" t="s">
-        <v>182</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
         <v>kāixué</v>
       </c>
       <c r="D93" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E93" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
@@ -5950,20 +5943,20 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
         <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>184</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
         <v>kàndào</v>
       </c>
       <c r="D94" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E94" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
@@ -5972,20 +5965,20 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
         <v>185</v>
-      </c>
-      <c r="B95" t="s">
-        <v>186</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
         <v>kànjiàn</v>
       </c>
       <c r="D95" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E95" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
@@ -5994,20 +5987,20 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
         <v>187</v>
-      </c>
-      <c r="B96" t="s">
-        <v>188</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
         <v>kēxué</v>
       </c>
       <c r="D96" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E96" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
@@ -6016,20 +6009,20 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
         <v>189</v>
-      </c>
-      <c r="B97" t="s">
-        <v>190</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="2"/>
         <v>kěài</v>
       </c>
       <c r="D97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E97" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
@@ -6038,20 +6031,20 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
         <v>191</v>
-      </c>
-      <c r="B98" t="s">
-        <v>192</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="2"/>
         <v>kèběn</v>
       </c>
       <c r="D98" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E98" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
@@ -6060,20 +6053,20 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
         <v>193</v>
-      </c>
-      <c r="B99" t="s">
-        <v>194</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="2"/>
         <v>kèqì</v>
       </c>
       <c r="D99" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
@@ -6082,20 +6075,20 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
         <v>195</v>
-      </c>
-      <c r="B100" t="s">
-        <v>196</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="2"/>
         <v>kèrén</v>
       </c>
       <c r="D100" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E100" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
@@ -6104,20 +6097,20 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
         <v>197</v>
-      </c>
-      <c r="B101" t="s">
-        <v>198</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="2"/>
         <v>kèwén</v>
       </c>
       <c r="D101" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E101" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
@@ -6126,20 +6119,20 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
         <v>199</v>
-      </c>
-      <c r="B102" t="s">
-        <v>200</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="2"/>
         <v>kōngqì</v>
       </c>
       <c r="D102" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
@@ -6148,20 +6141,20 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" t="s">
         <v>201</v>
-      </c>
-      <c r="B103" t="s">
-        <v>202</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="2"/>
         <v>kuàizi</v>
       </c>
       <c r="D103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E103" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
@@ -6170,20 +6163,20 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
         <v>203</v>
-      </c>
-      <c r="B104" t="s">
-        <v>204</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="2"/>
         <v>lánsè</v>
       </c>
       <c r="D104" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E104" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
@@ -6192,20 +6185,20 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
         <v>205</v>
-      </c>
-      <c r="B105" t="s">
-        <v>206</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="2"/>
         <v>lǎorén</v>
       </c>
       <c r="D105" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E105" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
@@ -6214,20 +6207,20 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
         <v>207</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="2"/>
         <v>lǐwù</v>
       </c>
       <c r="D106" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E106" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
@@ -6236,20 +6229,20 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
         <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>210</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="2"/>
         <v>liànxí</v>
       </c>
       <c r="D107" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E107" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
@@ -6258,20 +6251,20 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
         <v>211</v>
-      </c>
-      <c r="B108" t="s">
-        <v>212</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="2"/>
         <v>liángkuài</v>
       </c>
       <c r="D108" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E108" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
@@ -6280,20 +6273,20 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" t="s">
         <v>213</v>
-      </c>
-      <c r="B109" t="s">
-        <v>214</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="2"/>
         <v>lǚyóu</v>
       </c>
       <c r="D109" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E109" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
@@ -6302,20 +6295,20 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" t="s">
         <v>215</v>
-      </c>
-      <c r="B110" t="s">
-        <v>216</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="2"/>
         <v>lùshàng</v>
       </c>
       <c r="D110" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
@@ -6324,20 +6317,20 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" t="s">
         <v>217</v>
-      </c>
-      <c r="B111" t="s">
-        <v>218</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="2"/>
         <v>máfán</v>
       </c>
       <c r="D111" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E111" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
@@ -6346,20 +6339,20 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="2"/>
         <v>máfán</v>
       </c>
       <c r="D112" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E112" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
@@ -6368,20 +6361,20 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" t="s">
         <v>220</v>
-      </c>
-      <c r="B113" t="s">
-        <v>221</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="2"/>
         <v>mǎshàng</v>
       </c>
       <c r="D113" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E113" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
@@ -6390,20 +6383,20 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
         <v>222</v>
-      </c>
-      <c r="B114" t="s">
-        <v>223</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="2"/>
         <v>máoyī</v>
       </c>
       <c r="D114" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E114" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
@@ -6412,20 +6405,20 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" t="s">
         <v>224</v>
-      </c>
-      <c r="B115" t="s">
-        <v>225</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="2"/>
         <v>màozi</v>
       </c>
       <c r="D115" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E115" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
@@ -6434,20 +6427,20 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
         <v>226</v>
-      </c>
-      <c r="B116" t="s">
-        <v>227</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="2"/>
         <v>měilì</v>
       </c>
       <c r="D116" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
@@ -6456,20 +6449,20 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
         <v>228</v>
-      </c>
-      <c r="B117" t="s">
-        <v>229</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="2"/>
         <v>mùtóu</v>
       </c>
       <c r="D117" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E117" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
@@ -6478,20 +6471,20 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
         <v>230</v>
-      </c>
-      <c r="B118" t="s">
-        <v>231</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="2"/>
         <v>nàbiān</v>
       </c>
       <c r="D118" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E118" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
@@ -6500,20 +6493,20 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" t="s">
         <v>232</v>
-      </c>
-      <c r="B119" t="s">
-        <v>233</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="2"/>
         <v>nǎinai</v>
       </c>
       <c r="D119" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E119" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
@@ -6522,20 +6515,20 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
         <v>234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>235</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="2"/>
         <v>nánguò</v>
       </c>
       <c r="D120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E120" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
@@ -6544,20 +6537,20 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
         <v>236</v>
-      </c>
-      <c r="B121" t="s">
-        <v>237</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="2"/>
         <v>niánjì</v>
       </c>
       <c r="D121" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E121" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
@@ -6566,20 +6559,20 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
         <v>238</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="2"/>
         <v>niánqīng</v>
       </c>
       <c r="D122" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E122" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
@@ -6588,20 +6581,20 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>933</v>
+      </c>
+      <c r="B123" t="s">
         <v>934</v>
-      </c>
-      <c r="B123" t="s">
-        <v>935</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="2"/>
         <v>niǎo</v>
       </c>
       <c r="D123" t="s">
+        <v>935</v>
+      </c>
+      <c r="E123" t="s">
         <v>936</v>
-      </c>
-      <c r="E123" t="s">
-        <v>937</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
@@ -6610,20 +6603,20 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
         <v>240</v>
-      </c>
-      <c r="B124" t="s">
-        <v>241</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="2"/>
         <v>nǔlì</v>
       </c>
       <c r="D124" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E124" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
@@ -6632,20 +6625,20 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" t="s">
         <v>242</v>
-      </c>
-      <c r="B125" t="s">
-        <v>243</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="2"/>
         <v>nuǎnhuo</v>
       </c>
       <c r="D125" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
@@ -6654,20 +6647,20 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
         <v>244</v>
-      </c>
-      <c r="B126" t="s">
-        <v>245</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="2"/>
         <v>páshān</v>
       </c>
       <c r="D126" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E126" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
@@ -6676,20 +6669,20 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" t="s">
         <v>246</v>
-      </c>
-      <c r="B127" t="s">
-        <v>247</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="2"/>
         <v>pánzi</v>
       </c>
       <c r="D127" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E127" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
@@ -6698,20 +6691,20 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
         <v>248</v>
-      </c>
-      <c r="B128" t="s">
-        <v>249</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="2"/>
         <v>píngguǒ</v>
       </c>
       <c r="D128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E128" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
@@ -6720,20 +6713,20 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
         <v>250</v>
-      </c>
-      <c r="B129" t="s">
-        <v>251</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="2"/>
         <v>píngzi</v>
       </c>
       <c r="D129" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E129" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
@@ -6742,20 +6735,20 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" t="s">
         <v>252</v>
-      </c>
-      <c r="B130" t="s">
-        <v>253</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="2"/>
         <v>qíguài</v>
       </c>
       <c r="D130" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E130" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
@@ -6764,20 +6757,20 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" t="s">
         <v>254</v>
-      </c>
-      <c r="B131" t="s">
-        <v>255</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C194" si="4">LEFT(B131,FIND(" ",B131)-1)</f>
         <v>qìshuǐ</v>
       </c>
       <c r="D131" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E131" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="5">RIGHT(B131,LEN(B131)-FIND(" ",B131))</f>
@@ -6786,20 +6779,20 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>255</v>
+      </c>
+      <c r="B132" t="s">
         <v>256</v>
-      </c>
-      <c r="B132" t="s">
-        <v>257</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="4"/>
         <v>qǐlái</v>
       </c>
       <c r="D132" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E132" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="5"/>
@@ -6808,20 +6801,20 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
         <v>258</v>
-      </c>
-      <c r="B133" t="s">
-        <v>259</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="4"/>
         <v>qìchē</v>
       </c>
       <c r="D133" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E133" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="5"/>
@@ -6830,20 +6823,20 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" t="s">
         <v>260</v>
-      </c>
-      <c r="B134" t="s">
-        <v>261</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="4"/>
         <v>qiānbǐ</v>
       </c>
       <c r="D134" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E134" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="5"/>
@@ -6852,20 +6845,20 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" t="s">
         <v>262</v>
-      </c>
-      <c r="B135" t="s">
-        <v>263</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="4"/>
         <v>qiántiān</v>
       </c>
       <c r="D135" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E135" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="5"/>
@@ -6874,20 +6867,20 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
         <v>264</v>
-      </c>
-      <c r="B136" t="s">
-        <v>265</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="4"/>
         <v>qīngchǔ</v>
       </c>
       <c r="D136" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E136" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="5"/>
@@ -6896,20 +6889,20 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" t="s">
         <v>266</v>
-      </c>
-      <c r="B137" t="s">
-        <v>267</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="4"/>
         <v>qíngtiān</v>
       </c>
       <c r="D137" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E137" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="5"/>
@@ -6918,20 +6911,20 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" t="s">
         <v>268</v>
-      </c>
-      <c r="B138" t="s">
-        <v>269</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="4"/>
         <v>qǐngkè</v>
       </c>
       <c r="D138" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E138" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="5"/>
@@ -6940,20 +6933,20 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
         <v>270</v>
-      </c>
-      <c r="B139" t="s">
-        <v>271</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="4"/>
         <v>qìngzhù</v>
       </c>
       <c r="D139" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E139" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="5"/>
@@ -6962,20 +6955,20 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
         <v>272</v>
-      </c>
-      <c r="B140" t="s">
-        <v>273</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="4"/>
         <v>quánbù</v>
       </c>
       <c r="D140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E140" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="5"/>
@@ -6984,20 +6977,20 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" t="s">
         <v>274</v>
-      </c>
-      <c r="B141" t="s">
-        <v>275</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="4"/>
         <v>qúnzi</v>
       </c>
       <c r="D141" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E141" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="5"/>
@@ -7006,20 +6999,20 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" t="s">
         <v>276</v>
-      </c>
-      <c r="B142" t="s">
-        <v>277</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="4"/>
         <v>ránhòu</v>
       </c>
       <c r="D142" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E142" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="5"/>
@@ -7028,20 +7021,20 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" t="s">
         <v>278</v>
-      </c>
-      <c r="B143" t="s">
-        <v>279</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="4"/>
         <v>rènwéi</v>
       </c>
       <c r="D143" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E143" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="5"/>
@@ -7050,20 +7043,20 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>279</v>
+      </c>
+      <c r="B144" t="s">
         <v>280</v>
-      </c>
-      <c r="B144" t="s">
-        <v>281</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="4"/>
         <v>rènzhēn</v>
       </c>
       <c r="D144" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E144" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="5"/>
@@ -7072,20 +7065,20 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" t="s">
         <v>282</v>
-      </c>
-      <c r="B145" t="s">
-        <v>283</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="4"/>
         <v>rìzi</v>
       </c>
       <c r="D145" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="5"/>
@@ -7094,20 +7087,20 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>283</v>
+      </c>
+      <c r="B146" t="s">
         <v>284</v>
-      </c>
-      <c r="B146" t="s">
-        <v>285</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="4"/>
         <v>rúguǒ</v>
       </c>
       <c r="D146" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E146" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="5"/>
@@ -7116,20 +7109,20 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" t="s">
         <v>286</v>
-      </c>
-      <c r="B147" t="s">
-        <v>287</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="4"/>
         <v>sēnlín</v>
       </c>
       <c r="D147" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E147" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="5"/>
@@ -7138,20 +7131,20 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" t="s">
         <v>288</v>
-      </c>
-      <c r="B148" t="s">
-        <v>289</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="4"/>
         <v>shāfā</v>
       </c>
       <c r="D148" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E148" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="5"/>
@@ -7160,20 +7153,20 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
         <v>290</v>
-      </c>
-      <c r="B149" t="s">
-        <v>291</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="4"/>
         <v>shànglái</v>
       </c>
       <c r="D149" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E149" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="5"/>
@@ -7182,20 +7175,20 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" t="s">
         <v>292</v>
-      </c>
-      <c r="B150" t="s">
-        <v>293</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="4"/>
         <v>shàngqù</v>
       </c>
       <c r="D150" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E150" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="5"/>
@@ -7204,20 +7197,20 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
         <v>294</v>
-      </c>
-      <c r="B151" t="s">
-        <v>295</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="4"/>
         <v>shàngxué</v>
       </c>
       <c r="D151" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E151" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="5"/>
@@ -7226,20 +7219,20 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>295</v>
+      </c>
+      <c r="B152" t="s">
         <v>296</v>
-      </c>
-      <c r="B152" t="s">
-        <v>297</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="4"/>
         <v>shēnghuó</v>
       </c>
       <c r="D152" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E152" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="5"/>
@@ -7248,20 +7241,20 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="4"/>
         <v>shēnghuó</v>
       </c>
       <c r="D153" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E153" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="5"/>
@@ -7270,20 +7263,20 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" t="s">
         <v>299</v>
-      </c>
-      <c r="B154" t="s">
-        <v>300</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="4"/>
         <v>shēngqì</v>
       </c>
       <c r="D154" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E154" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="5"/>
@@ -7292,20 +7285,20 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" t="s">
         <v>301</v>
-      </c>
-      <c r="B155" t="s">
-        <v>302</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="4"/>
         <v>shēngyīn</v>
       </c>
       <c r="D155" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E155" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="5"/>
@@ -7314,20 +7307,20 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" t="s">
         <v>303</v>
-      </c>
-      <c r="B156" t="s">
-        <v>304</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="4"/>
         <v>shìchǎng</v>
       </c>
       <c r="D156" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E156" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="5"/>
@@ -7336,20 +7329,20 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" t="s">
         <v>305</v>
-      </c>
-      <c r="B157" t="s">
-        <v>306</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="4"/>
         <v>shìjiè</v>
       </c>
       <c r="D157" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E157" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="5"/>
@@ -7358,20 +7351,20 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" t="s">
         <v>307</v>
-      </c>
-      <c r="B158" t="s">
-        <v>308</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="4"/>
         <v>shìqíng</v>
       </c>
       <c r="D158" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E158" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="5"/>
@@ -7380,20 +7373,20 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" t="s">
         <v>309</v>
-      </c>
-      <c r="B159" t="s">
-        <v>310</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="4"/>
         <v>shítóu</v>
       </c>
       <c r="D159" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E159" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="5"/>
@@ -7402,20 +7395,20 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" t="s">
         <v>311</v>
-      </c>
-      <c r="B160" t="s">
-        <v>312</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="4"/>
         <v>shíwù</v>
       </c>
       <c r="D160" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E160" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="5"/>
@@ -7424,20 +7417,20 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" t="s">
         <v>313</v>
-      </c>
-      <c r="B161" t="s">
-        <v>314</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="4"/>
         <v>shǒutào</v>
       </c>
       <c r="D161" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E161" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="5"/>
@@ -7446,20 +7439,20 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" t="s">
         <v>315</v>
-      </c>
-      <c r="B162" t="s">
-        <v>316</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="4"/>
         <v>shūzhuō</v>
       </c>
       <c r="D162" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E162" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="5"/>
@@ -7468,20 +7461,20 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" t="s">
         <v>317</v>
-      </c>
-      <c r="B163" t="s">
-        <v>318</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="4"/>
         <v>shuāyá</v>
       </c>
       <c r="D163" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E163" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="5"/>
@@ -7490,20 +7483,20 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
         <v>319</v>
-      </c>
-      <c r="B164" t="s">
-        <v>320</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="4"/>
         <v>suīrán</v>
       </c>
       <c r="D164" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E164" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="5"/>
@@ -7512,20 +7505,20 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" t="s">
         <v>321</v>
-      </c>
-      <c r="B165" t="s">
-        <v>322</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="4"/>
         <v>suíbiàn</v>
       </c>
       <c r="D165" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E165" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="5"/>
@@ -7534,20 +7527,20 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" t="s">
         <v>323</v>
-      </c>
-      <c r="B166" t="s">
-        <v>324</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="4"/>
         <v>suǒyǒu</v>
       </c>
       <c r="D166" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E166" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="5"/>
@@ -7556,20 +7549,20 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" t="s">
         <v>325</v>
-      </c>
-      <c r="B167" t="s">
-        <v>326</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="4"/>
         <v>tāngchí</v>
       </c>
       <c r="D167" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E167" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="5"/>
@@ -7578,20 +7571,20 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" t="s">
         <v>327</v>
-      </c>
-      <c r="B168" t="s">
-        <v>328</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="4"/>
         <v>tǎoyàn</v>
       </c>
       <c r="D168" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E168" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="5"/>
@@ -7600,20 +7593,20 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" t="s">
         <v>329</v>
-      </c>
-      <c r="B169" t="s">
-        <v>330</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="4"/>
         <v>tiāntiān</v>
       </c>
       <c r="D169" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E169" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="5"/>
@@ -7622,20 +7615,20 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
         <v>331</v>
-      </c>
-      <c r="B170" t="s">
-        <v>332</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="4"/>
         <v>tīngjiàn</v>
       </c>
       <c r="D170" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E170" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="5"/>
@@ -7644,20 +7637,20 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" t="s">
         <v>333</v>
-      </c>
-      <c r="B171" t="s">
-        <v>334</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="4"/>
         <v>tīngshuō</v>
       </c>
       <c r="D171" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E171" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="5"/>
@@ -7666,20 +7659,20 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" t="s">
         <v>335</v>
-      </c>
-      <c r="B172" t="s">
-        <v>336</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="4"/>
         <v>tíngchē</v>
       </c>
       <c r="D172" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E172" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="5"/>
@@ -7688,20 +7681,20 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" t="s">
         <v>337</v>
-      </c>
-      <c r="B173" t="s">
-        <v>338</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="4"/>
         <v>tōngzhī</v>
       </c>
       <c r="D173" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E173" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="5"/>
@@ -7710,20 +7703,20 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="4"/>
         <v>tōngzhī</v>
       </c>
       <c r="D174" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E174" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="5"/>
@@ -7732,20 +7725,20 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>339</v>
+      </c>
+      <c r="B175" t="s">
         <v>340</v>
-      </c>
-      <c r="B175" t="s">
-        <v>341</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="4"/>
         <v>tóufǎ</v>
       </c>
       <c r="D175" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E175" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="5"/>
@@ -7754,20 +7747,20 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" t="s">
         <v>342</v>
-      </c>
-      <c r="B176" t="s">
-        <v>343</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="4"/>
         <v>wàitào</v>
       </c>
       <c r="D176" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E176" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="5"/>
@@ -7776,20 +7769,20 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>343</v>
+      </c>
+      <c r="B177" t="s">
         <v>344</v>
-      </c>
-      <c r="B177" t="s">
-        <v>345</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="4"/>
         <v>wéixiǎn</v>
       </c>
       <c r="D177" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E177" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="5"/>
@@ -7798,20 +7791,20 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" t="s">
         <v>346</v>
-      </c>
-      <c r="B178" t="s">
-        <v>347</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="4"/>
         <v>wèidào</v>
       </c>
       <c r="D178" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E178" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="5"/>
@@ -7820,20 +7813,20 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" t="s">
         <v>348</v>
-      </c>
-      <c r="B179" t="s">
-        <v>349</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="4"/>
         <v>wúliáo</v>
       </c>
       <c r="D179" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E179" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="5"/>
@@ -7842,20 +7835,20 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" t="s">
         <v>350</v>
-      </c>
-      <c r="B180" t="s">
-        <v>351</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="4"/>
         <v>xīguā</v>
       </c>
       <c r="D180" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E180" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="5"/>
@@ -7864,20 +7857,20 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" t="s">
         <v>352</v>
-      </c>
-      <c r="B181" t="s">
-        <v>353</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="4"/>
         <v>xīwàng</v>
       </c>
       <c r="D181" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E181" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="5"/>
@@ -7886,20 +7879,20 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" t="s">
         <v>354</v>
-      </c>
-      <c r="B182" t="s">
-        <v>355</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="4"/>
         <v>xíguàn</v>
       </c>
       <c r="D182" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E182" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="5"/>
@@ -7908,20 +7901,20 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" t="s">
         <v>356</v>
-      </c>
-      <c r="B183" t="s">
-        <v>357</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="4"/>
         <v>xūyào</v>
       </c>
       <c r="D183" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E183" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="5"/>
@@ -7930,20 +7923,20 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" t="s">
         <v>358</v>
-      </c>
-      <c r="B184" t="s">
-        <v>359</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="4"/>
         <v>xǔduō</v>
       </c>
       <c r="D184" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E184" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="5"/>
@@ -7952,20 +7945,20 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" t="s">
         <v>360</v>
-      </c>
-      <c r="B185" t="s">
-        <v>361</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="4"/>
         <v>xiàlái</v>
       </c>
       <c r="D185" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E185" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="5"/>
@@ -7974,20 +7967,20 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>361</v>
+      </c>
+      <c r="B186" t="s">
         <v>362</v>
-      </c>
-      <c r="B186" t="s">
-        <v>363</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="4"/>
         <v>xiàqù</v>
       </c>
       <c r="D186" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E186" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="5"/>
@@ -7996,20 +7989,20 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>363</v>
+      </c>
+      <c r="B187" t="s">
         <v>364</v>
-      </c>
-      <c r="B187" t="s">
-        <v>365</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="4"/>
         <v>xiàxuě</v>
       </c>
       <c r="D187" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E187" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="5"/>
@@ -8018,20 +8011,20 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" t="s">
         <v>366</v>
-      </c>
-      <c r="B188" t="s">
-        <v>367</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="4"/>
         <v>xiāngxià</v>
       </c>
       <c r="D188" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E188" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="5"/>
@@ -8040,20 +8033,20 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" t="s">
         <v>368</v>
-      </c>
-      <c r="B189" t="s">
-        <v>369</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="4"/>
         <v>xiāngxìn</v>
       </c>
       <c r="D189" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E189" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="5"/>
@@ -8062,20 +8055,20 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" t="s">
         <v>370</v>
-      </c>
-      <c r="B190" t="s">
-        <v>371</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="4"/>
         <v>xiāngzi</v>
       </c>
       <c r="D190" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E190" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="5"/>
@@ -8084,20 +8077,20 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" t="s">
         <v>372</v>
-      </c>
-      <c r="B191" t="s">
-        <v>373</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="4"/>
         <v>xiāoxí</v>
       </c>
       <c r="D191" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E191" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="5"/>
@@ -8106,20 +8099,20 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>373</v>
+      </c>
+      <c r="B192" t="s">
         <v>374</v>
-      </c>
-      <c r="B192" t="s">
-        <v>375</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="4"/>
         <v>xiǎoshuō</v>
       </c>
       <c r="D192" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E192" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="5"/>
@@ -8128,20 +8121,20 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" t="s">
         <v>376</v>
-      </c>
-      <c r="B193" t="s">
-        <v>377</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="4"/>
         <v>xiǎotōu</v>
       </c>
       <c r="D193" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E193" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="5"/>
@@ -8150,20 +8143,20 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" t="s">
         <v>378</v>
-      </c>
-      <c r="B194" t="s">
-        <v>379</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="4"/>
         <v>xiǎoxué</v>
       </c>
       <c r="D194" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E194" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="5"/>
@@ -8172,20 +8165,20 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195" t="s">
         <v>380</v>
-      </c>
-      <c r="B195" t="s">
-        <v>381</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" ref="C195:C253" si="6">LEFT(B195,FIND(" ",B195)-1)</f>
         <v>xiàohuà</v>
       </c>
       <c r="D195" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E195" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F253" si="7">RIGHT(B195,LEN(B195)-FIND(" ",B195))</f>
@@ -8194,20 +8187,20 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" t="s">
         <v>382</v>
-      </c>
-      <c r="B196" t="s">
-        <v>383</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="6"/>
         <v>xiàozhǎng</v>
       </c>
       <c r="D196" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E196" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="7"/>
@@ -8216,20 +8209,20 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" t="s">
         <v>384</v>
-      </c>
-      <c r="B197" t="s">
-        <v>385</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="6"/>
         <v>xīnkǔ</v>
       </c>
       <c r="D197" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E197" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="7"/>
@@ -8238,20 +8231,20 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" t="s">
         <v>386</v>
-      </c>
-      <c r="B198" t="s">
-        <v>387</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="6"/>
         <v>xīnwén</v>
       </c>
       <c r="D198" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E198" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="7"/>
@@ -8260,20 +8253,20 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" t="s">
         <v>388</v>
-      </c>
-      <c r="B199" t="s">
-        <v>389</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="6"/>
         <v>xīngxīng</v>
       </c>
       <c r="D199" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E199" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="7"/>
@@ -8282,20 +8275,20 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" t="s">
         <v>390</v>
-      </c>
-      <c r="B200" t="s">
-        <v>391</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="6"/>
         <v>xìngqù</v>
       </c>
       <c r="D200" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E200" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="7"/>
@@ -8304,20 +8297,20 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" t="s">
         <v>392</v>
-      </c>
-      <c r="B201" t="s">
-        <v>393</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="6"/>
         <v>xuéxí</v>
       </c>
       <c r="D201" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E201" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="7"/>
@@ -8326,20 +8319,20 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" t="s">
         <v>394</v>
-      </c>
-      <c r="B202" t="s">
-        <v>395</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="6"/>
         <v>yáshuā</v>
       </c>
       <c r="D202" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E202" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="7"/>
@@ -8348,20 +8341,20 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" t="s">
         <v>396</v>
-      </c>
-      <c r="B203" t="s">
-        <v>397</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="6"/>
         <v>yánsè</v>
       </c>
       <c r="D203" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E203" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="7"/>
@@ -8370,20 +8363,20 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>397</v>
+      </c>
+      <c r="B204" t="s">
         <v>398</v>
-      </c>
-      <c r="B204" t="s">
-        <v>399</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="6"/>
         <v>yǎnjìng</v>
       </c>
       <c r="D204" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E204" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="7"/>
@@ -8392,20 +8385,20 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" t="s">
         <v>400</v>
-      </c>
-      <c r="B205" t="s">
-        <v>401</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="6"/>
         <v>yàoshí</v>
       </c>
       <c r="D205" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E205" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="7"/>
@@ -8414,20 +8407,20 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" t="s">
         <v>402</v>
-      </c>
-      <c r="B206" t="s">
-        <v>403</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="6"/>
         <v>yàoshì</v>
       </c>
       <c r="D206" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E206" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="7"/>
@@ -8436,20 +8429,20 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" t="s">
         <v>404</v>
-      </c>
-      <c r="B207" t="s">
-        <v>405</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="6"/>
         <v>yàngzi</v>
       </c>
       <c r="D207" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E207" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="7"/>
@@ -8458,20 +8451,20 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>405</v>
+      </c>
+      <c r="B208" t="s">
         <v>406</v>
-      </c>
-      <c r="B208" t="s">
-        <v>407</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="6"/>
         <v>yěxǔ</v>
       </c>
       <c r="D208" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E208" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="7"/>
@@ -8480,20 +8473,20 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209" t="s">
         <v>408</v>
-      </c>
-      <c r="B209" t="s">
-        <v>409</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="6"/>
         <v>yéye</v>
       </c>
       <c r="D209" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E209" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="7"/>
@@ -8502,20 +8495,20 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210" t="s">
         <v>410</v>
-      </c>
-      <c r="B210" t="s">
-        <v>411</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="6"/>
         <v>yìbiān</v>
       </c>
       <c r="D210" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E210" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="7"/>
@@ -8524,20 +8517,20 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211" t="s">
         <v>412</v>
-      </c>
-      <c r="B211" t="s">
-        <v>413</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="6"/>
         <v>yǐnliào</v>
       </c>
       <c r="D211" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E211" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="7"/>
@@ -8546,20 +8539,20 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" t="s">
         <v>414</v>
-      </c>
-      <c r="B212" t="s">
-        <v>415</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="6"/>
         <v>yīntiān</v>
       </c>
       <c r="D212" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E212" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="7"/>
@@ -8568,20 +8561,20 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>415</v>
+      </c>
+      <c r="B213" t="s">
         <v>416</v>
-      </c>
-      <c r="B213" t="s">
-        <v>417</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="6"/>
         <v>yīnggāi</v>
       </c>
       <c r="D213" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E213" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="7"/>
@@ -8590,20 +8583,20 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>417</v>
+      </c>
+      <c r="B214" t="s">
         <v>418</v>
-      </c>
-      <c r="B214" t="s">
-        <v>419</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="6"/>
         <v>yǒngyuǎn</v>
       </c>
       <c r="D214" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E214" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="7"/>
@@ -8612,20 +8605,20 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>419</v>
+      </c>
+      <c r="B215" t="s">
         <v>420</v>
-      </c>
-      <c r="B215" t="s">
-        <v>421</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="6"/>
         <v>yǒuqù</v>
       </c>
       <c r="D215" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E215" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="7"/>
@@ -8634,20 +8627,20 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
+        <v>421</v>
+      </c>
+      <c r="B216" t="s">
         <v>422</v>
-      </c>
-      <c r="B216" t="s">
-        <v>423</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="6"/>
         <v>yǒuyòng</v>
       </c>
       <c r="D216" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E216" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="7"/>
@@ -8656,20 +8649,20 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>423</v>
+      </c>
+      <c r="B217" t="s">
         <v>424</v>
-      </c>
-      <c r="B217" t="s">
-        <v>425</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="6"/>
         <v>yuánlái</v>
       </c>
       <c r="D217" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E217" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="7"/>
@@ -8678,20 +8671,20 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>425</v>
+      </c>
+      <c r="B218" t="s">
         <v>426</v>
-      </c>
-      <c r="B218" t="s">
-        <v>427</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="6"/>
         <v>yuànzi</v>
       </c>
       <c r="D218" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E218" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="7"/>
@@ -8700,20 +8693,20 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>427</v>
+      </c>
+      <c r="B219" t="s">
         <v>428</v>
-      </c>
-      <c r="B219" t="s">
-        <v>429</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="6"/>
         <v>yuànyì</v>
       </c>
       <c r="D219" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E219" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="7"/>
@@ -8722,20 +8715,20 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" t="s">
         <v>430</v>
-      </c>
-      <c r="B220" t="s">
-        <v>431</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="6"/>
         <v>yuèliàng</v>
       </c>
       <c r="D220" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E220" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="7"/>
@@ -8744,20 +8737,20 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>431</v>
+      </c>
+      <c r="B221" t="s">
         <v>432</v>
-      </c>
-      <c r="B221" t="s">
-        <v>433</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="6"/>
         <v>yǔfǎ</v>
       </c>
       <c r="D221" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E221" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="7"/>
@@ -8766,20 +8759,20 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222" t="s">
         <v>434</v>
-      </c>
-      <c r="B222" t="s">
-        <v>435</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="6"/>
         <v>yǔyán</v>
       </c>
       <c r="D222" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E222" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="7"/>
@@ -8788,20 +8781,20 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" t="s">
         <v>436</v>
-      </c>
-      <c r="B223" t="s">
-        <v>437</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="6"/>
         <v>zhájī</v>
       </c>
       <c r="D223" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E223" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="7"/>
@@ -8810,20 +8803,20 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" t="s">
         <v>438</v>
-      </c>
-      <c r="B224" t="s">
-        <v>439</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="6"/>
         <v>zhāojí</v>
       </c>
       <c r="D224" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E224" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="7"/>
@@ -8832,20 +8825,20 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" t="s">
         <v>440</v>
-      </c>
-      <c r="B225" t="s">
-        <v>441</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="6"/>
         <v>zhèbiān</v>
       </c>
       <c r="D225" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E225" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="7"/>
@@ -8854,20 +8847,20 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" t="s">
         <v>442</v>
-      </c>
-      <c r="B226" t="s">
-        <v>443</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="6"/>
         <v>zhèngzài</v>
       </c>
       <c r="D226" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E226" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="7"/>
@@ -8876,20 +8869,20 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" t="s">
         <v>444</v>
-      </c>
-      <c r="B227" t="s">
-        <v>445</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="6"/>
         <v>zhǐhǎo</v>
       </c>
       <c r="D227" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E227" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="7"/>
@@ -8898,20 +8891,20 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228" t="s">
         <v>446</v>
-      </c>
-      <c r="B228" t="s">
-        <v>447</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="6"/>
         <v>zhōngjiān</v>
       </c>
       <c r="D228" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E228" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="7"/>
@@ -8920,20 +8913,20 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>447</v>
+      </c>
+      <c r="B229" t="s">
         <v>448</v>
-      </c>
-      <c r="B229" t="s">
-        <v>449</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="6"/>
         <v>zhōngtóu</v>
       </c>
       <c r="D229" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E229" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="7"/>
@@ -8942,20 +8935,20 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>449</v>
+      </c>
+      <c r="B230" t="s">
         <v>450</v>
-      </c>
-      <c r="B230" t="s">
-        <v>451</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="6"/>
         <v>zhōngxīn</v>
       </c>
       <c r="D230" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E230" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="7"/>
@@ -8964,20 +8957,20 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231" t="s">
         <v>452</v>
-      </c>
-      <c r="B231" t="s">
-        <v>453</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="6"/>
         <v>zhǔnbèi</v>
       </c>
       <c r="D231" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E231" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="7"/>
@@ -8986,20 +8979,20 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>453</v>
+      </c>
+      <c r="B232" t="s">
         <v>454</v>
-      </c>
-      <c r="B232" t="s">
-        <v>455</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="6"/>
         <v>zhùyì</v>
       </c>
       <c r="D232" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E232" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="7"/>
@@ -9008,20 +9001,20 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>455</v>
+      </c>
+      <c r="B233" t="s">
         <v>456</v>
-      </c>
-      <c r="B233" t="s">
-        <v>457</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="6"/>
         <v>zǒngshì</v>
       </c>
       <c r="D233" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E233" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="7"/>
@@ -9030,20 +9023,20 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>457</v>
+      </c>
+      <c r="B234" t="s">
         <v>458</v>
-      </c>
-      <c r="B234" t="s">
-        <v>459</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="6"/>
         <v>zuǐbā</v>
       </c>
       <c r="D234" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E234" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="7"/>
@@ -9052,20 +9045,20 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>459</v>
+      </c>
+      <c r="B235" t="s">
         <v>460</v>
-      </c>
-      <c r="B235" t="s">
-        <v>461</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="6"/>
         <v>zuòcài</v>
       </c>
       <c r="D235" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E235" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="7"/>
@@ -9074,20 +9067,20 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" t="s">
         <v>462</v>
-      </c>
-      <c r="B236" t="s">
-        <v>463</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="6"/>
         <v>zuòyè</v>
       </c>
       <c r="D236" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E236" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="7"/>
@@ -9096,20 +9089,20 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>463</v>
+      </c>
+      <c r="B237" t="s">
         <v>464</v>
-      </c>
-      <c r="B237" t="s">
-        <v>465</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="6"/>
         <v>bùyīdìng</v>
       </c>
       <c r="D237" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E237" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="7"/>
@@ -9118,20 +9111,20 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>465</v>
+      </c>
+      <c r="B238" t="s">
         <v>466</v>
-      </c>
-      <c r="B238" t="s">
-        <v>467</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="6"/>
         <v>dòngwùyuán</v>
       </c>
       <c r="D238" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E238" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="7"/>
@@ -9140,20 +9133,20 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>467</v>
+      </c>
+      <c r="B239" t="s">
         <v>468</v>
-      </c>
-      <c r="B239" t="s">
-        <v>469</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="6"/>
         <v>fúwùshēng</v>
       </c>
       <c r="D239" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E239" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="7"/>
@@ -9162,20 +9155,20 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" t="s">
         <v>470</v>
-      </c>
-      <c r="B240" t="s">
-        <v>471</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="6"/>
         <v>hónglǜdēng</v>
       </c>
       <c r="D240" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E240" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="7"/>
@@ -9184,20 +9177,20 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>471</v>
+      </c>
+      <c r="B241" t="s">
         <v>472</v>
-      </c>
-      <c r="B241" t="s">
-        <v>473</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="6"/>
         <v>jìchéngchē</v>
       </c>
       <c r="D241" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E241" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="7"/>
@@ -9206,20 +9199,20 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>937</v>
+      </c>
+      <c r="B242" t="s">
         <v>938</v>
-      </c>
-      <c r="B242" t="s">
-        <v>939</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="6"/>
         <v>lǐbiān</v>
       </c>
       <c r="D242" t="s">
+        <v>939</v>
+      </c>
+      <c r="E242" t="s">
         <v>940</v>
-      </c>
-      <c r="E242" t="s">
-        <v>941</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="7"/>
@@ -9228,20 +9221,20 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>941</v>
+      </c>
+      <c r="B243" t="s">
         <v>942</v>
-      </c>
-      <c r="B243" t="s">
-        <v>943</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="6"/>
         <v>liáotiān</v>
       </c>
       <c r="D243" t="s">
+        <v>943</v>
+      </c>
+      <c r="E243" t="s">
         <v>944</v>
-      </c>
-      <c r="E243" t="s">
-        <v>945</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="7"/>
@@ -9250,20 +9243,20 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>473</v>
+      </c>
+      <c r="B244" t="s">
         <v>474</v>
-      </c>
-      <c r="B244" t="s">
-        <v>475</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="6"/>
         <v>nàmeyàng</v>
       </c>
       <c r="D244" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E244" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="7"/>
@@ -9272,20 +9265,20 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>945</v>
+      </c>
+      <c r="B245" t="s">
         <v>946</v>
-      </c>
-      <c r="B245" t="s">
-        <v>947</v>
       </c>
       <c r="C245" t="str">
         <f>LEFT(B245,FIND(" ",B245)-1)</f>
         <v>pángbiān</v>
       </c>
       <c r="D245" t="s">
+        <v>947</v>
+      </c>
+      <c r="E245" t="s">
         <v>948</v>
-      </c>
-      <c r="E245" t="s">
-        <v>949</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="7"/>
@@ -9294,20 +9287,20 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>475</v>
+      </c>
+      <c r="B246" t="s">
         <v>476</v>
-      </c>
-      <c r="B246" t="s">
-        <v>477</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="6"/>
         <v>qiǎokèlì</v>
       </c>
       <c r="D246" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E246" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="7"/>
@@ -9316,20 +9309,20 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>949</v>
+      </c>
+      <c r="B247" t="s">
         <v>950</v>
-      </c>
-      <c r="B247" t="s">
-        <v>951</v>
       </c>
       <c r="C247" t="str">
         <f>LEFT(B247,FIND(" ",B247)-1)</f>
         <v>yíbàn</v>
       </c>
       <c r="D247" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E247" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="7"/>
@@ -9338,20 +9331,20 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>952</v>
+      </c>
+      <c r="B248" t="s">
         <v>953</v>
-      </c>
-      <c r="B248" t="s">
-        <v>954</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="6"/>
         <v>yíhuì</v>
       </c>
       <c r="D248" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E248" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="7"/>
@@ -9360,20 +9353,20 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>477</v>
+      </c>
+      <c r="B249" t="s">
         <v>478</v>
-      </c>
-      <c r="B249" t="s">
-        <v>479</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="6"/>
         <v>yuèláiyuè</v>
       </c>
       <c r="D249" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E249" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="7"/>
@@ -9382,20 +9375,20 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
+        <v>479</v>
+      </c>
+      <c r="B250" t="s">
         <v>480</v>
-      </c>
-      <c r="B250" t="s">
-        <v>481</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="6"/>
         <v>zhèmeyàng</v>
       </c>
       <c r="D250" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E250" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="7"/>
@@ -9404,20 +9397,20 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
+        <v>481</v>
+      </c>
+      <c r="B251" t="s">
         <v>482</v>
-      </c>
-      <c r="B251" t="s">
-        <v>483</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="6"/>
         <v>jìhuà/huà</v>
       </c>
       <c r="D251" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E251" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="7"/>
@@ -9426,20 +9419,20 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>483</v>
+      </c>
+      <c r="B252" t="s">
         <v>484</v>
-      </c>
-      <c r="B252" t="s">
-        <v>485</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="6"/>
         <v>mótuōchē/jīchē</v>
       </c>
       <c r="D252" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E252" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="7"/>
@@ -9448,20 +9441,20 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>485</v>
+      </c>
+      <c r="B253" t="s">
         <v>486</v>
-      </c>
-      <c r="B253" t="s">
-        <v>487</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="6"/>
         <v>chāojíshìchǎng/chāoshì</v>
       </c>
       <c r="D253" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E253" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="7"/>
